--- a/similarities/split_global/harmonic_similarity_timestamps_324.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_324.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,375 +484,405 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_298</t>
+          <t>schubert-winterreise_85</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>schubert-winterreise_171</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G']]</t>
+          <t>['D:min/A', 'A:7', 'D:min']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['F#:min', 'C#:7', 'F#:min']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:00.344657', '0:00:11.337709')]</t>
+          <t>('0:01:49.520000', '0:01:54.200000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:18.120000', '0:00:24.540000')]</t>
+          <t>('0:00:03.820000', '0:00:08.620000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-298#t=0.344657']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-85#t=109.52</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=18.12']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-171#t=3.82</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_225</t>
+          <t>isophonics_248</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_179</t>
+          <t>isophonics_241</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['E/3', 'A:min', 'F']]</t>
+          <t>['B:min', 'G', 'D/3']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['A:maj', 'D:min', 'A#:maj']]</t>
+          <t>['C:min', 'Ab', 'Eb']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:12.579000', '0:00:17.703000')]</t>
+          <t>('0:00:12.707000', '0:00:15.429000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:06.140000', '0:00:10.320000')]</t>
+          <t>('0:00:55.608000', '0:01:01.440000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-225#t=12.579']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-248#t=12.707</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-179#t=6.14']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-241#t=55.608</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_182</t>
+          <t>jaah_36</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_34</t>
+          <t>jaah_52</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>['G', 'B:hdim7', 'E:7']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['Eb/5', 'Ab', 'Eb/3']]</t>
+          <t>['F', 'C:min6', 'D:7']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:02:34.020000', '0:02:39.240000')]</t>
+          <t>('0:00:05.840000', '0:00:09.410000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:01:26.923922', '0:01:32.322562')]</t>
+          <t>('0:00:40.450000', '0:00:44.130000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-182#t=154.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-36#t=5.84</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-34#t=86.923922']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-52#t=40.45</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_191</t>
+          <t>isophonics_61</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_95</t>
+          <t>schubert-winterreise_14</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['B', 'Gb', 'B']]</t>
+          <t>['F#:min', 'C#', 'F#:min']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['G#/C', 'D#', 'G#']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:15.552131', '0:00:21.368730')]</t>
+          <t>('0:00:03.744784', '0:00:06.774988')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:45.360000', '0:00:49')]</t>
+          <t>('0:00:10.560000', '0:00:17.340000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-191#t=15.552131']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-61#t=3.744784</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=45.36']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-14#t=10.56</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_200</t>
+          <t>schubert-winterreise_40</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
+          <t>schubert-winterreise_91</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'A']]</t>
+          <t>['D:maj', 'A:7', 'D:maj']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:maj', 'F:maj']]</t>
+          <t>['D#:maj/A#', 'A#:7', 'D#:maj']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:10.953139', '0:00:19.672232')]</t>
+          <t>('0:00:02.360000', '0:00:11.660000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:41.080000', '0:00:43.260000')]</t>
+          <t>('0:01:19.980000', '0:01:33.600000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-200#t=10.953139']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-40#t=2.36</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-142#t=41.08']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-91#t=79.98</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_6</t>
+          <t>schubert-winterreise_173</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
+          <t>isophonics_59</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['D', 'G/5', 'D', 'G/5', 'D']]</t>
+          <t>['G:min', 'A:min/C', 'D:maj']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>['G:min', 'A:min', 'D']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:20.432000', '0:00:26.250000')]</t>
+          <t>('0:00:03.760000', '0:00:08.700000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:02:08.760000', '0:02:14.600000')]</t>
+          <t>('0:01:35.904784', '0:01:44.577437')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-6#t=20.432']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-173#t=3.76</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-188#t=128.76']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-59#t=95.904784</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_64</t>
+          <t>schubert-winterreise_131</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_78</t>
+          <t>schubert-winterreise_129</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['D', 'A', 'D', 'A', 'E']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['D', 'A', 'D', 'A', 'E']]</t>
+          <t>['F:maj', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:02:21.245000', '0:02:37.804000')]</t>
+          <t>('0:01:03.100000', '0:01:04.500000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:01:37.425691', '0:01:45.343696')]</t>
+          <t>('0:00:38.180000', '0:00:51.980000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-64#t=141.245']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-131#t=63.1</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-78#t=97.425691']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=38.18</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_221</t>
+          <t>schubert-winterreise_60</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_158</t>
+          <t>schubert-winterreise_171</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['C', 'F/5', 'C']]</t>
+          <t>['G:min', 'D:7/G', 'G:min']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['F#:min', 'C#:7', 'F#:min']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:05.121000', '0:00:12.601000')]</t>
+          <t>('0:00:17.040000', '0:00:24.520000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:01:15.520000', '0:01:19.700000')]</t>
+          <t>('0:00:03.820000', '0:00:08.620000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-221#t=5.121']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-60#t=17.04</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-158#t=75.52']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-171#t=3.82</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_128</t>
+          <t>isophonics_152</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -862,32 +892,32 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['C', 'F', 'C']]</t>
+          <t>['A/3', 'D', 'A']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['G:maj', 'C:maj/G', 'G:maj']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:10.634761', '0:00:15.986961')]</t>
+          <t>('0:00:04.250000', '0:00:09.179000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:16.920000', '0:00:23.900000')]</t>
+          <t>('0:00:16.920000', '0:00:23.900000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-128#t=10.634761']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-152#t=4.25</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=16.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=16.92</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -896,282 +926,296 @@
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
+          <t>schubert-winterreise_128</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_61</t>
+          <t>schubert-winterreise_215</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G:min', 'D:7', 'G:min']]</t>
+          <t>['G:min/D', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['B:min/5', 'F#:min', 'C#:7', 'F#:min']]</t>
+          <t>['G:min', 'D:7/G', 'G:min']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:02.980000', '0:00:08.800000')]</t>
+          <t>('0:00:46.520000', '0:00:48.940000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:23.632675', '0:00:27.452358')]</t>
+          <t>('0:00:15.780000', '0:00:21.280000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-89#t=2.98']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=46.52</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-61#t=23.632675']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-215#t=15.78</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
+          <t>isophonics_21</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_291</t>
+          <t>schubert-winterreise_172</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>['G:7', 'C', 'C/b7']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D', 'G', 'D']]</t>
+          <t>['B:7/A', 'E:maj/G#', 'E:maj/B']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:01:45', '0:01:48.840000')]</t>
+          <t>('0:00:34.041000', '0:00:38.588000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:03.044470', '0:00:14.983242')]</t>
+          <t>('0:03:29.040000', '0:03:37.180000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=105.0']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-21#t=34.041</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-291#t=3.04447']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>spotify:track:06ypiqmILMdVeaiErMFA91</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-172#t=209.04</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>jaah_36</t>
+          <t>jaah_31</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>jaah_51</t>
+          <t>schubert-winterreise_55</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['E:min7', 'A:7', 'A:min7', 'D:7']]</t>
+          <t>['D:min7', 'G:7', 'C', 'G:7']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['A:min7', 'D:7', 'D:min7', 'G:7']]</t>
+          <t>['A:min7/C', 'D:7', 'G:maj', 'D:7/C']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:37.990000', '0:00:45.130000')]</t>
+          <t>('0:00:04.240000', '0:00:15.040000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:24.910000', '0:00:30.350000')]</t>
+          <t>('0:01:05.760000', '0:01:14.480000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-36#t=37.99']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-31#t=4.24</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-51#t=24.91']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=65.76</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_73</t>
+          <t>isophonics_199</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_107</t>
+          <t>isophonics_296</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D', 'D:7']]</t>
+          <t>['A', 'G', 'A', 'D', 'G']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E', 'B:7']]</t>
+          <t>['D:maj', 'C:maj', 'D:maj', 'G:maj', 'C:maj']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:01:05.200000', '0:01:07.740000')]</t>
+          <t>('0:01:10.981661', '0:01:14.894222')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:01:40.569342', '0:01:53.665396')]</t>
+          <t>('0:00:33.079000', '0:00:41.649000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-73#t=65.2']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-199#t=70.981661</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-107#t=100.569342']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-296#t=33.079</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>jaah_75</t>
+          <t>schubert-winterreise_48</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>jaah_79</t>
+          <t>schubert-winterreise_207</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['Gb:dim7', 'F:min7', 'Bb:7', 'Eb:maj6']]</t>
+          <t>['C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['G:dim7', 'C:min7', 'F:7', 'Bb:maj6']]</t>
+          <t>['C:maj', 'F:7', 'A#:maj', 'F:maj', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:35.170000', '0:00:41.840000')]</t>
+          <t>('0:00:55.840000', '0:01:08.120000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:22.320000', '0:00:26.110000')]</t>
+          <t>('0:00:02.020000', '0:00:15.900000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-75#t=35.17']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-48#t=55.84</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-79#t=22.32']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-207#t=2.02</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_91</t>
+          <t>schubert-winterreise_163</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_72</t>
+          <t>schubert-winterreise_178</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'A#:maj', 'D#:maj'], ['D#:maj/A#', 'A#:7', 'D#:maj']]</t>
+          <t>['F:min', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:maj', 'C:maj'], ['C:maj', 'G:7', 'C:maj']]</t>
+          <t>['D:min/A', 'A:7', 'D:min']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:00.780000', '0:00:24.040000'), ('0:01:19.980000', '0:01:33.600000')]</t>
+          <t>('0:00:07.700000', '0:00:12.060000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:08.340000', '0:00:10.040000'), ('0:00:00.380000', '0:00:07.840000')]</t>
+          <t>('0:02:09.060000', '0:02:14.200000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-91#t=0.78', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-91#t=79.98']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-163#t=7.7</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-72#t=8.34', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-72#t=0.38']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-178#t=129.06</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
